--- a/phase 2 release/districts extract/unique ph201d Indicators.xlsx
+++ b/phase 2 release/districts extract/unique ph201d Indicators.xlsx
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="6">
@@ -411,7 +411,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="7">
@@ -421,7 +421,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="8">
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="9">
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="11">
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="12">
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="13">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="15">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="17">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="18">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="22">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="24">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="25">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B26">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="27">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B29">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="30">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="B31">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="32">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B32">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B34">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="35">
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="B36">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="37">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B38">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="B39">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="40">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="B42">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="43">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="B43">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="44">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="B46">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="47">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="B48">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="49">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="B50">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="51">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="B51">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="52">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="B52">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="53">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="B54">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="55">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="B57">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="58">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="B58">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="59">
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="B59">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="60">
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="B60">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="61">
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="B61">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="62">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B62">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="63">
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="B64">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="65">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="B65">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="66">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B66">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="67">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B67">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="68">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="B69">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="70">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B70">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="71">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="B71">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="72">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="B72">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="73">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="B73">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="74">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="B74">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="75">
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="B75">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="76">
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="B76">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="77">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="B78">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="79">
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="B79">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="80">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="B80">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="81">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="B82">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="83">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="B83">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="84">
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="B84">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="85">
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="B85">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="86">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B86">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="87">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="B87">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="88">
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="B88">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="89">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="B89">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="90">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="B90">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="91">
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="B91">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="92">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="B92">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="93">
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="B93">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="94">
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="B94">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="95">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="B95">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="96">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="B96">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="97">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="B97">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="98">
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="B99">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="100">
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="B100">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="101">
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="B101">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="102">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="B102">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="103">
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="B103">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="104">
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="B105">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="106">
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="B106">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="107">
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="B108">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="109">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="B109">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="110">
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="B110">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="111">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="B111">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="112">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="B112">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="113">
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="B113">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="114">
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="B114">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="115">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="B115">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="116">
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="B116">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="117">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="B117">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="118">
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="B118">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="119">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="B119">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="120">
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="B120">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="121">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="B121">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="122">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="B122">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="123">
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="B123">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="124">
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="B124">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="125">
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="B125">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="126">
@@ -1611,7 +1611,7 @@
         </is>
       </c>
       <c r="B126">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="127">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="B127">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="128">
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="B128">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="129">
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="B129">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="130">
@@ -1651,7 +1651,7 @@
         </is>
       </c>
       <c r="B130">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="131">
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="B131">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="132">
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="B133">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="134">
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="B134">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="135">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="B135">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="136">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="B137">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="138">
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="B139">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="140">
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="B141">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="142">
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="B143">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="144">

--- a/phase 2 release/districts extract/unique ph201d Indicators.xlsx
+++ b/phase 2 release/districts extract/unique ph201d Indicators.xlsx
@@ -1,21 +1,476 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\external\nfhs5_factsheets\phase 2 release\districts extract\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7554BDA8-8555-45C9-BC46-E810D5BA0383}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16. Women age 20-24 years married before age 18 years (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38. Mothers who received postnatal care from a doctor/nurse/LHV/ANM/midwife/other health personnel within 2 days of</t>
+  </si>
+  <si>
+    <t>1. Female population age 6 years and above who ever attended school (%)</t>
+  </si>
+  <si>
+    <t>10. Households using clean fuel for cooking3 (%)</t>
+  </si>
+  <si>
+    <t>100. Ever undergone an oral cavity examination for oral cancer (%)</t>
+  </si>
+  <si>
+    <t>101. Women age 15 years and above who use any kind of tobacco (%)</t>
+  </si>
+  <si>
+    <t>101. Women age 15 years and above who use any kind of tobacco (%) 102. Men age 15 years and above who use any kind of tobacco (%)</t>
+  </si>
+  <si>
+    <t>102. Men age 15 years and above who use any kind of tobacco (%)</t>
+  </si>
+  <si>
+    <t>103. Women age 15 years and above who consume alcohol (%)</t>
+  </si>
+  <si>
+    <t>104. Men age 15 years and above who consume alcohol (%)</t>
+  </si>
+  <si>
+    <t>11. Households using clean fuel for cooking3 (%)</t>
+  </si>
+  <si>
+    <t>11. Households using iodized salt (%)</t>
+  </si>
+  <si>
+    <t>12. Households using iodized salt (%)</t>
+  </si>
+  <si>
+    <t>12. Households with any usual member covered under a health insurance/financing scheme (%)</t>
+  </si>
+  <si>
+    <t>13. Children age 5 years who attended pre-primary school during the school year 2019-20 (%)</t>
+  </si>
+  <si>
+    <t>13. Children age 5 years who attended pre-primary school during the school year 2020-21 (%)</t>
+  </si>
+  <si>
+    <t>13. Households with any usual member covered by a health scheme or health insurance (%)</t>
+  </si>
+  <si>
+    <t>14. Children age 5 years who attended pre-primary school during the school year 2019-20 (%)</t>
+  </si>
+  <si>
+    <t>14. Women who are literate4 (%)</t>
+  </si>
+  <si>
+    <t>15. Women who are literate4 (%)</t>
+  </si>
+  <si>
+    <t>15. Women with 10 or more years of schooling (%)</t>
+  </si>
+  <si>
+    <t>16. Women age 20-24 years married before age 18 years (%)</t>
+  </si>
+  <si>
+    <t>16. Women with 10 or more years of schooling (%)</t>
+  </si>
+  <si>
+    <t>17. Births in the 5 years preceding the survey that are third or higher order (%)</t>
+  </si>
+  <si>
+    <t>17. Women age 20-24 years married before age 18 years (%)</t>
+  </si>
+  <si>
+    <t>18. Births in the 5 years preceding the survey that are third or higher order (%)</t>
+  </si>
+  <si>
+    <t>18. Women age 15-19 years who were already mothers or pregnant at the time of the survey (%)</t>
+  </si>
+  <si>
+    <t>19. Women age 15-19 years who were already mothers or pregnant at the time of the survey (%)</t>
+  </si>
+  <si>
+    <t>19. Women age 15-24 years who use hygienic methods of protection during their menstrual period5 (%)</t>
+  </si>
+  <si>
+    <t>2. Population below age 15 years (%)</t>
+  </si>
+  <si>
+    <t>20. Women age 15-24 years who use hygienic methods of protection during their menstrual period5 (%)</t>
+  </si>
+  <si>
+    <t>21. Any modern method6 (%)</t>
+  </si>
+  <si>
+    <t>22. Any modern method6 (%)</t>
+  </si>
+  <si>
+    <t>22. Female sterilization (%)</t>
+  </si>
+  <si>
+    <t>23. Female sterilization (%)</t>
+  </si>
+  <si>
+    <t>23. Male sterilization (%)</t>
+  </si>
+  <si>
+    <t>24. IUD/PPIUD (%)</t>
+  </si>
+  <si>
+    <t>24. Male sterilization (%)</t>
+  </si>
+  <si>
+    <t>25. IUD/PPIUD (%)</t>
+  </si>
+  <si>
+    <t>25. Pill (%)</t>
+  </si>
+  <si>
+    <t>26. Condom (%)</t>
+  </si>
+  <si>
+    <t>26. Pill (%)</t>
+  </si>
+  <si>
+    <t>27. Condom (%)</t>
+  </si>
+  <si>
+    <t>27. Injectables (%)</t>
+  </si>
+  <si>
+    <t>28. Injectables (%)</t>
+  </si>
+  <si>
+    <t>28. Total unmet need7 (%)</t>
+  </si>
+  <si>
+    <t>29. Total unmet need7 (%)</t>
+  </si>
+  <si>
+    <t>29. Unmet need for spacing7 (%)</t>
+  </si>
+  <si>
+    <t>3. Sex ratio of the total population (females per 1,000 males)</t>
+  </si>
+  <si>
+    <t>30. Health worker ever talked to female non-users about family planning (%)</t>
+  </si>
+  <si>
+    <t>30. Unmet need for spacing7 (%)</t>
+  </si>
+  <si>
+    <t>31. Current users ever told about side effects of current method8 (%)</t>
+  </si>
+  <si>
+    <t>31. Health worker ever talked to female non-users about family planning (%)</t>
+  </si>
+  <si>
+    <t>32. Current users ever told about side effects of current method8 (%)</t>
+  </si>
+  <si>
+    <t>32. Mothers who had an antenatal check-up in the first trimester (%)</t>
+  </si>
+  <si>
+    <t>33. Mothers who had at least 4 antenatal care visits (%)</t>
+  </si>
+  <si>
+    <t>34. Mothers whose last birth was protected against neonatal tetanus9 (%)</t>
+  </si>
+  <si>
+    <t>35. Mothers who consumed iron folic acid for 100 days or more when they were pregnant (%)</t>
+  </si>
+  <si>
+    <t>36. Mothers who consumed iron folic acid for 180 days or more when they were pregnant (%)</t>
+  </si>
+  <si>
+    <t>37. Registered pregnancies for which the mother received a Mother and Child Protection (MCP) card (%)</t>
+  </si>
+  <si>
+    <t>38. Mothers who received postnatal care from a doctor/nurse/LHV/ANM/midwife/other health personnel within 2</t>
+  </si>
+  <si>
+    <t>38. Mothers who received postnatal care from a doctor/nurse/LHV/ANM/midwife/other health personnel within 2 days of delivery (%)</t>
+  </si>
+  <si>
+    <t>39. Average out-of-pocket expenditure per delivery in a public health facility (Rs.)</t>
+  </si>
+  <si>
+    <t>4. Sex ratio at birth for children born in the last five years (females per 1,000 males)</t>
+  </si>
+  <si>
+    <t>40. Children born at home who were taken to a health facility for a check-up within 24 hours of birth (%)</t>
+  </si>
+  <si>
+    <t>41. Children who received postnatal care from a doctor/nurse/LHV/ANM/midwife/other health personnel within 2</t>
+  </si>
+  <si>
+    <t>41. Children who received postnatal care from a doctor/nurse/LHV/ANM/midwife/other health personnel within 2 days of delivery (%)</t>
+  </si>
+  <si>
+    <t>42. Institutional births (%)</t>
+  </si>
+  <si>
+    <t>43. Institutional births in public facility (%)</t>
+  </si>
+  <si>
+    <t>44. Home births that were conducted by skilled health personnel10 (%)</t>
+  </si>
+  <si>
+    <t>45. Births attended by skilled health personnel10 (%)</t>
+  </si>
+  <si>
+    <t>46. Births delivered by caesarean section (%)</t>
+  </si>
+  <si>
+    <t>47. Births in a private health facility that were delivered by caesarean section (%)</t>
+  </si>
+  <si>
+    <t>48. Births in a public health facility that were delivered by caesarean section (%)</t>
+  </si>
+  <si>
+    <t>49. Children age 12-23 months fully vaccinated based on information from either vaccination card or</t>
+  </si>
+  <si>
+    <t>49. Children age 12-23 months fully vaccinated based on information from either vaccination card or mother's recall11 (%)</t>
+  </si>
+  <si>
+    <t>5. Children under age 5 years whose birth was registered with the civil authority (%)</t>
+  </si>
+  <si>
+    <t>50. Children age 12-23 months fully vaccinated based on information from vaccination card only12 (%)</t>
+  </si>
+  <si>
+    <t>50. Cmhoiltdhreern's  ragecea 1ll2- 2(%3 m) onths fully vaccinated based on information from vaccination card only12 (%) 11</t>
+  </si>
+  <si>
+    <t>51. Children age 12-23 months who have received BCG (%)</t>
+  </si>
+  <si>
+    <t>52. Children age 12-23 months who have received 3 doses of polio vaccine13 (%)</t>
+  </si>
+  <si>
+    <t>53. Children age 12-23 months who have received 3 doses of penta or DPT vaccine (%)</t>
+  </si>
+  <si>
+    <t>54. Children age 12-23 months who have received the first dose of measles-containing vaccine (MCV) (%)</t>
+  </si>
+  <si>
+    <t>55. Children age 24-35 months who have received a second dose of measles-containing vaccine (MCV) (%)</t>
+  </si>
+  <si>
+    <t>56. Children age 12-23 months who have received 3 doses of rotavirus vaccine14 (%)</t>
+  </si>
+  <si>
+    <t>57. Children age 12-23 months who have received 3 doses of penta or hepatitis B vaccine (%)</t>
+  </si>
+  <si>
+    <t>58. Children age 9-35 months who received a vitamin A dose in the last 6 months (%)</t>
+  </si>
+  <si>
+    <t>59. Children age 12-23 months who received most of their vaccinations in a public health facility (%)</t>
+  </si>
+  <si>
+    <t>6. Deaths in the last 3 years registered with the civil authority (%)</t>
+  </si>
+  <si>
+    <t>60. Children age 12-23 months who received most of their vaccinations in a private health facility (%)</t>
+  </si>
+  <si>
+    <t>61. Prevalence of diarrhoea in the 2 weeks preceding the survey (%)</t>
+  </si>
+  <si>
+    <t>62. Children with diarrhoea in the 2 weeks preceding the survey who received oral rehydration salts (ORS) (%)</t>
+  </si>
+  <si>
+    <t>63. Children with diarrhoea in the 2 weeks preceding the survey who received zinc (%)</t>
+  </si>
+  <si>
+    <t>64. Children with diarrhoea in the 2 weeks preceding the survey taken to a health facility or health provider (%)</t>
+  </si>
+  <si>
+    <t>65. Prevalence of symptoms of acute respiratory infection (ARI) in the 2 weeks preceding the survey (%)</t>
+  </si>
+  <si>
+    <t>66. Children with fever or symptoms of ARI in the 2 weeks preceding the survey taken to a health facility or</t>
+  </si>
+  <si>
+    <t>66. Children with fever or symptoms of ARI in the 2 weeks preceding the survey taken to a health facility or health provider (%)</t>
+  </si>
+  <si>
+    <t>67. Children under age 3 years breastfed within one hour of birth15 (%)</t>
+  </si>
+  <si>
+    <t>68. Children under age 6 months exclusively breastfed16 (%)</t>
+  </si>
+  <si>
+    <t>69. Children age 6-8 months receiving solid or semi-solid food and breastmilk16 (%)</t>
+  </si>
+  <si>
+    <t>7. Population living in households with electricity (%)</t>
+  </si>
+  <si>
+    <t>70. Breastfeeding children age 6-23 months receiving an adequate diet16, 17  (%)</t>
+  </si>
+  <si>
+    <t>70. Breastfeeding children age 6-23 months receiving an adequate diet16, 17 (%)</t>
+  </si>
+  <si>
+    <t>71. Non-breastfeeding children age 6-23 months receiving an adequate diet16, 17 (%)</t>
+  </si>
+  <si>
+    <t>72. Total children age 6-23 months receiving an adequate diet16, 17  (%)</t>
+  </si>
+  <si>
+    <t>72. Total children age 6-23 months receiving an adequate diet16, 17 (%)</t>
+  </si>
+  <si>
+    <t>73. Children under 5 years who are stunted (height-for-age)18 (%)</t>
+  </si>
+  <si>
+    <t>74. Children under 5 years who are wasted (weight-for-height)18 (%)</t>
+  </si>
+  <si>
+    <t>75. Children under 5 years who are severely wasted (weight-for-height)19 (%)</t>
+  </si>
+  <si>
+    <t>76. Children under 5 years who are underweight (weight-for-age)18 (%)</t>
+  </si>
+  <si>
+    <t>77. Children under 5 years who are overweight (weight-for-height)20 (%)</t>
+  </si>
+  <si>
+    <t>78. Women whose Body Mass Index (BMI) is below normal (BMI &lt;18.5 kg/m2)21 (%)</t>
+  </si>
+  <si>
+    <t>79. Women who are overweight or obese (BMI â‰¥25.0 kg/m2)21 (%)</t>
+  </si>
+  <si>
+    <t>8. Population living in households with an improved drinking-water source1 (%)</t>
+  </si>
+  <si>
+    <t>80. Women who have high risk waist-to-hip ratio (â‰¥0.85) (%)</t>
+  </si>
+  <si>
+    <t>81. Children age 6-59 months who are anaemic (&lt;11.0 g/dl)22 (%)</t>
+  </si>
+  <si>
+    <t>82. Non-pregnant women age 15-49 years who are anaemic (&lt;12.0 g/dl)22 (%)</t>
+  </si>
+  <si>
+    <t>83. Pregnant women age 15-49 years who are anaemic (&lt;11.0 g/dl)22 (%)</t>
+  </si>
+  <si>
+    <t>84. All women age 15-49 years who are anaemic22 (%)</t>
+  </si>
+  <si>
+    <t>85. All women age 15-19 years who are anaemic22 (%)</t>
+  </si>
+  <si>
+    <t>86. Blood sugar level - high (141-160 mg/dl)23 (%)</t>
+  </si>
+  <si>
+    <t>87. Blood sugar level - very high (&gt;160 mg/dl)23 (%)</t>
+  </si>
+  <si>
+    <t>88. Blood sugar level - high or very high (&gt;140 mg/dl) or taking medicine to control blood sugar level23 (%)</t>
+  </si>
+  <si>
+    <t>89. Blood sugar level - high (141-160 mg/dl)23 (%)</t>
+  </si>
+  <si>
+    <t>9. Population living in households that use an improved sanitation facility2 (%)</t>
+  </si>
+  <si>
+    <t>90. Blood sugar level - very high (&gt;160 mg/dl)23 (%)</t>
+  </si>
+  <si>
+    <t>91. Blood sugar level - high or very high (&gt;140 mg/dl) or taking medicine to control blood sugar level23 (%)</t>
+  </si>
+  <si>
+    <t>92. Mildly elevated blood pressure (Systolic 140-159 mm of Hg and/or Diastolic 90-99 mm of Hg) (%)</t>
+  </si>
+  <si>
+    <t>93. Moderately or severely elevated blood pressure (Systolic â‰¥160mm of Hg and/or Diastolic â‰¥100mm of Hg) (%)</t>
+  </si>
+  <si>
+    <t>94. Elevated blood pressure (Systolic â‰¥140 mm of Hg and/or Diastolic â‰¥90 mm of Hg) or taking medicine to</t>
+  </si>
+  <si>
+    <t>94. Elevated blood pressure (Systolic â‰¥140 mm of Hg and/or Diastolic â‰¥90 mm of Hg) or taking medicine to control blood pressure (%)</t>
+  </si>
+  <si>
+    <t>95. Mildly elevated blood pressure (Systolic 140-159 mm of Hg and/or Diastolic 90-99 mm of Hg) (%)</t>
+  </si>
+  <si>
+    <t>96. Moderately or severely elevated blood pressure (Systolic â‰¥160mm of Hg and/or Diastolic â‰¥100mm of Hg) (%)</t>
+  </si>
+  <si>
+    <t>97. Elevated blood pressure (Systolic â‰¥140 mm of Hg and/or Diastolic â‰¥90 mm of Hg) or taking medicine to</t>
+  </si>
+  <si>
+    <t>97. Elevated blood pressure (Systolic â‰¥140 mm of Hg and/or Diastolic â‰¥90 mm of Hg) or taking medicine to control blood pressure (%)</t>
+  </si>
+  <si>
+    <t>98. Ever undergone a screening test for cervical cancer (%)</t>
+  </si>
+  <si>
+    <t>98.Ever undergone a screening test for cervical cancer (%)</t>
+  </si>
+  <si>
+    <t>99. Ever undergone a breast examination for breast cancer (%)</t>
+  </si>
+  <si>
+    <t>99.Ever undergone a breast examination for breast cancer (%)</t>
+  </si>
+  <si>
+    <t>control blood pressure (%)</t>
+  </si>
+  <si>
+    <t>Current Use of Family Planning Methods (currently married women age 15â€“49 years) 20. Any method6 (%)</t>
+  </si>
+  <si>
+    <t>Current Use of Family Planning Methods (currently married women age 15â€“49 years) 21. Any method6 (%)</t>
+  </si>
+  <si>
+    <t>days of delivery (%) 39. Average out-of-pocket expenditure per delivery in a public health facility (Rs.)</t>
+  </si>
+  <si>
+    <t>days of delivery (%) 42. Institutional births (%)</t>
+  </si>
+  <si>
+    <t>health provider (%) 67. Children under age 3 years breastfed within one hour of birth15 (%)</t>
+  </si>
+  <si>
+    <t>mother's recall11 (%) 50. Children age 12-23 months fully vaccinated based on information from vaccination card only12 (%)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +518,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +572,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +604,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +656,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,1491 +849,1200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="119.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Indicator</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 16. Women age 20-24 years married before age 18 years (%)</t>
-        </is>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 38. Mothers who received postnatal care from a doctor/nurse/LHV/ANM/midwife/other health personnel within 2 days of</t>
-        </is>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1. Female population age 6 years and above who ever attended school (%)</t>
-        </is>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
         <v>705</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>10. Households using clean fuel for cooking3 (%)</t>
-        </is>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
         <v>703</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>100. Ever undergone an oral cavity examination for oral cancer (%)</t>
-        </is>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
       <c r="B7">
         <v>705</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>101. Women age 15 years and above who use any kind of tobacco (%)</t>
-        </is>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
         <v>704</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>101. Women age 15 years and above who use any kind of tobacco (%) 102. Men age 15 years and above who use any kind of tobacco (%)</t>
-        </is>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>102. Men age 15 years and above who use any kind of tobacco (%)</t>
-        </is>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10">
         <v>704</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>103. Women age 15 years and above who consume alcohol (%)</t>
-        </is>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
       </c>
       <c r="B11">
         <v>705</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>104. Men age 15 years and above who consume alcohol (%)</t>
-        </is>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
       <c r="B12">
         <v>704</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>11. Households using clean fuel for cooking3 (%)</t>
-        </is>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>12</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>11. Households using iodized salt (%)</t>
-        </is>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>13</v>
       </c>
       <c r="B14">
         <v>703</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>12. Households using iodized salt (%)</t>
-        </is>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>14</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>12. Households with any usual member covered under a health insurance/financing scheme (%)</t>
-        </is>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>15</v>
       </c>
       <c r="B16">
         <v>703</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>13. Children age 5 years who attended pre-primary school during the school year 2019-20 (%)</t>
-        </is>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>16</v>
       </c>
       <c r="B17">
         <v>702</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>13. Children age 5 years who attended pre-primary school during the school year 2020-21 (%)</t>
-        </is>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>13. Households with any usual member covered by a health scheme or health insurance (%)</t>
-        </is>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>18</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>14. Children age 5 years who attended pre-primary school during the school year 2019-20 (%)</t>
-        </is>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>14. Women who are literate4 (%)</t>
-        </is>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>20</v>
       </c>
       <c r="B21">
         <v>703</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>15. Women who are literate4 (%)</t>
-        </is>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>21</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>15. Women with 10 or more years of schooling (%)</t>
-        </is>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>22</v>
       </c>
       <c r="B23">
         <v>703</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>16. Women age 20-24 years married before age 18 years (%)</t>
-        </is>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>23</v>
       </c>
       <c r="B24">
         <v>702</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>16. Women with 10 or more years of schooling (%)</t>
-        </is>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>24</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>17. Births in the 5 years preceding the survey that are third or higher order (%)</t>
-        </is>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>25</v>
       </c>
       <c r="B26">
         <v>703</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>17. Women age 20-24 years married before age 18 years (%)</t>
-        </is>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>26</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>18. Births in the 5 years preceding the survey that are third or higher order (%)</t>
-        </is>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>27</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>18. Women age 15-19 years who were already mothers or pregnant at the time of the survey (%)</t>
-        </is>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>28</v>
       </c>
       <c r="B29">
         <v>703</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>19. Women age 15-19 years who were already mothers or pregnant at the time of the survey (%)</t>
-        </is>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>29</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>19. Women age 15-24 years who use hygienic methods of protection during their menstrual period5 (%)</t>
-        </is>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>30</v>
       </c>
       <c r="B31">
         <v>703</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2. Population below age 15 years (%)</t>
-        </is>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>31</v>
       </c>
       <c r="B32">
         <v>705</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>20. Women age 15-24 years who use hygienic methods of protection during their menstrual period5 (%)</t>
-        </is>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>32</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>21. Any modern method6 (%)</t>
-        </is>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>33</v>
       </c>
       <c r="B34">
         <v>703</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>22. Any modern method6 (%)</t>
-        </is>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>34</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>22. Female sterilization (%)</t>
-        </is>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>35</v>
       </c>
       <c r="B36">
         <v>703</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>23. Female sterilization (%)</t>
-        </is>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>36</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>23. Male sterilization (%)</t>
-        </is>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>37</v>
       </c>
       <c r="B38">
         <v>703</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>24. IUD/PPIUD (%)</t>
-        </is>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>38</v>
       </c>
       <c r="B39">
         <v>703</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>24. Male sterilization (%)</t>
-        </is>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>39</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>25. IUD/PPIUD (%)</t>
-        </is>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>40</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>25. Pill (%)</t>
-        </is>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>41</v>
       </c>
       <c r="B42">
         <v>703</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>26. Condom (%)</t>
-        </is>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>42</v>
       </c>
       <c r="B43">
         <v>703</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>26. Pill (%)</t>
-        </is>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>43</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>27. Condom (%)</t>
-        </is>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>44</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>27. Injectables (%)</t>
-        </is>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>45</v>
       </c>
       <c r="B46">
         <v>703</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>28. Injectables (%)</t>
-        </is>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>46</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>28. Total unmet need7 (%)</t>
-        </is>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>47</v>
       </c>
       <c r="B48">
         <v>703</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>29. Total unmet need7 (%)</t>
-        </is>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>48</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>29. Unmet need for spacing7 (%)</t>
-        </is>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>49</v>
       </c>
       <c r="B50">
         <v>703</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>3. Sex ratio of the total population (females per 1,000 males)</t>
-        </is>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>50</v>
       </c>
       <c r="B51">
         <v>705</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>30. Health worker ever talked to female non-users about family planning (%)</t>
-        </is>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>51</v>
       </c>
       <c r="B52">
         <v>703</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>30. Unmet need for spacing7 (%)</t>
-        </is>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>52</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>31. Current users ever told about side effects of current method8 (%)</t>
-        </is>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>53</v>
       </c>
       <c r="B54">
         <v>700</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>31. Health worker ever talked to female non-users about family planning (%)</t>
-        </is>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>54</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>32. Current users ever told about side effects of current method8 (%)</t>
-        </is>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>55</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>32. Mothers who had an antenatal check-up in the first trimester (%)</t>
-        </is>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>56</v>
       </c>
       <c r="B57">
         <v>705</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>33. Mothers who had at least 4 antenatal care visits (%)</t>
-        </is>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>57</v>
       </c>
       <c r="B58">
         <v>705</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>34. Mothers whose last birth was protected against neonatal tetanus9 (%)</t>
-        </is>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>58</v>
       </c>
       <c r="B59">
         <v>705</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>35. Mothers who consumed iron folic acid for 100 days or more when they were pregnant (%)</t>
-        </is>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>59</v>
       </c>
       <c r="B60">
         <v>705</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>36. Mothers who consumed iron folic acid for 180 days or more when they were pregnant (%)</t>
-        </is>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>60</v>
       </c>
       <c r="B61">
         <v>705</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>37. Registered pregnancies for which the mother received a Mother and Child Protection (MCP) card (%)</t>
-        </is>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>61</v>
       </c>
       <c r="B62">
         <v>705</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>38. Mothers who received postnatal care from a doctor/nurse/LHV/ANM/midwife/other health personnel within 2</t>
-        </is>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>62</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>38. Mothers who received postnatal care from a doctor/nurse/LHV/ANM/midwife/other health personnel within 2 days of delivery (%)</t>
-        </is>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>63</v>
       </c>
       <c r="B64">
         <v>703</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>39. Average out-of-pocket expenditure per delivery in a public health facility (Rs.)</t>
-        </is>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>64</v>
       </c>
       <c r="B65">
         <v>704</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>4. Sex ratio at birth for children born in the last five years (females per 1,000 males)</t>
-        </is>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>65</v>
       </c>
       <c r="B66">
         <v>705</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>40. Children born at home who were taken to a health facility for a check-up within 24 hours of birth (%)</t>
-        </is>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>66</v>
       </c>
       <c r="B67">
         <v>705</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>41. Children who received postnatal care from a doctor/nurse/LHV/ANM/midwife/other health personnel within 2</t>
-        </is>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>67</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>41. Children who received postnatal care from a doctor/nurse/LHV/ANM/midwife/other health personnel within 2 days of delivery (%)</t>
-        </is>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>68</v>
       </c>
       <c r="B69">
         <v>704</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>42. Institutional births (%)</t>
-        </is>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>69</v>
       </c>
       <c r="B70">
         <v>704</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>43. Institutional births in public facility (%)</t>
-        </is>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>70</v>
       </c>
       <c r="B71">
         <v>705</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>44. Home births that were conducted by skilled health personnel10 (%)</t>
-        </is>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>71</v>
       </c>
       <c r="B72">
         <v>705</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>45. Births attended by skilled health personnel10 (%)</t>
-        </is>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>72</v>
       </c>
       <c r="B73">
         <v>705</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>46. Births delivered by caesarean section (%)</t>
-        </is>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>73</v>
       </c>
       <c r="B74">
         <v>705</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>47. Births in a private health facility that were delivered by caesarean section (%)</t>
-        </is>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>74</v>
       </c>
       <c r="B75">
         <v>705</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>48. Births in a public health facility that were delivered by caesarean section (%)</t>
-        </is>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>75</v>
       </c>
       <c r="B76">
         <v>705</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>49. Children age 12-23 months fully vaccinated based on information from either vaccination card or</t>
-        </is>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>76</v>
       </c>
       <c r="B77">
         <v>2</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>49. Children age 12-23 months fully vaccinated based on information from either vaccination card or mother's recall11 (%)</t>
-        </is>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>77</v>
       </c>
       <c r="B78">
         <v>703</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>5. Children under age 5 years whose birth was registered with the civil authority (%)</t>
-        </is>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>78</v>
       </c>
       <c r="B79">
         <v>705</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>50. Children age 12-23 months fully vaccinated based on information from vaccination card only12 (%)</t>
-        </is>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>79</v>
       </c>
       <c r="B80">
         <v>703</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>50. Cmhoiltdhreern's  ragecea 1ll2- 2(%3 m) onths fully vaccinated based on information from vaccination card only12 (%) 11</t>
-        </is>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>80</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>51. Children age 12-23 months who have received BCG (%)</t>
-        </is>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>81</v>
       </c>
       <c r="B82">
         <v>705</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>52. Children age 12-23 months who have received 3 doses of polio vaccine13 (%)</t>
-        </is>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>82</v>
       </c>
       <c r="B83">
         <v>705</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>53. Children age 12-23 months who have received 3 doses of penta or DPT vaccine (%)</t>
-        </is>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>83</v>
       </c>
       <c r="B84">
         <v>705</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>54. Children age 12-23 months who have received the first dose of measles-containing vaccine (MCV) (%)</t>
-        </is>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>84</v>
       </c>
       <c r="B85">
         <v>705</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>55. Children age 24-35 months who have received a second dose of measles-containing vaccine (MCV) (%)</t>
-        </is>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>85</v>
       </c>
       <c r="B86">
         <v>705</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>56. Children age 12-23 months who have received 3 doses of rotavirus vaccine14 (%)</t>
-        </is>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>86</v>
       </c>
       <c r="B87">
         <v>705</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>57. Children age 12-23 months who have received 3 doses of penta or hepatitis B vaccine (%)</t>
-        </is>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>87</v>
       </c>
       <c r="B88">
         <v>705</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>58. Children age 9-35 months who received a vitamin A dose in the last 6 months (%)</t>
-        </is>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>88</v>
       </c>
       <c r="B89">
         <v>705</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>59. Children age 12-23 months who received most of their vaccinations in a public health facility (%)</t>
-        </is>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>89</v>
       </c>
       <c r="B90">
         <v>705</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>6. Deaths in the last 3 years registered with the civil authority (%)</t>
-        </is>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>90</v>
       </c>
       <c r="B91">
         <v>705</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>60. Children age 12-23 months who received most of their vaccinations in a private health facility (%)</t>
-        </is>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>91</v>
       </c>
       <c r="B92">
         <v>705</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>61. Prevalence of diarrhoea in the 2 weeks preceding the survey (%)</t>
-        </is>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>92</v>
       </c>
       <c r="B93">
         <v>705</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>62. Children with diarrhoea in the 2 weeks preceding the survey who received oral rehydration salts (ORS) (%)</t>
-        </is>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>93</v>
       </c>
       <c r="B94">
         <v>705</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>63. Children with diarrhoea in the 2 weeks preceding the survey who received zinc (%)</t>
-        </is>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>94</v>
       </c>
       <c r="B95">
         <v>705</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>64. Children with diarrhoea in the 2 weeks preceding the survey taken to a health facility or health provider (%)</t>
-        </is>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>95</v>
       </c>
       <c r="B96">
         <v>705</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>65. Prevalence of symptoms of acute respiratory infection (ARI) in the 2 weeks preceding the survey (%)</t>
-        </is>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>96</v>
       </c>
       <c r="B97">
         <v>705</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>66. Children with fever or symptoms of ARI in the 2 weeks preceding the survey taken to a health facility or</t>
-        </is>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>97</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>66. Children with fever or symptoms of ARI in the 2 weeks preceding the survey taken to a health facility or health provider (%)</t>
-        </is>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>98</v>
       </c>
       <c r="B99">
         <v>704</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>67. Children under age 3 years breastfed within one hour of birth15 (%)</t>
-        </is>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>99</v>
       </c>
       <c r="B100">
         <v>704</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>68. Children under age 6 months exclusively breastfed16 (%)</t>
-        </is>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>100</v>
       </c>
       <c r="B101">
         <v>705</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>69. Children age 6-8 months receiving solid or semi-solid food and breastmilk16 (%)</t>
-        </is>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>101</v>
       </c>
       <c r="B102">
         <v>705</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>7. Population living in households with electricity (%)</t>
-        </is>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>102</v>
       </c>
       <c r="B103">
         <v>705</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>70. Breastfeeding children age 6-23 months receiving an adequate diet16, 17  (%)</t>
-        </is>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>103</v>
       </c>
       <c r="B104">
         <v>385</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>70. Breastfeeding children age 6-23 months receiving an adequate diet16, 17 (%)</t>
-        </is>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>104</v>
       </c>
       <c r="B105">
         <v>320</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>71. Non-breastfeeding children age 6-23 months receiving an adequate diet16, 17 (%)</t>
-        </is>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>105</v>
       </c>
       <c r="B106">
         <v>705</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>72. Total children age 6-23 months receiving an adequate diet16, 17  (%)</t>
-        </is>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>106</v>
       </c>
       <c r="B107">
         <v>385</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>72. Total children age 6-23 months receiving an adequate diet16, 17 (%)</t>
-        </is>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>107</v>
       </c>
       <c r="B108">
         <v>320</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>73. Children under 5 years who are stunted (height-for-age)18 (%)</t>
-        </is>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>108</v>
       </c>
       <c r="B109">
         <v>705</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>74. Children under 5 years who are wasted (weight-for-height)18 (%)</t>
-        </is>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>109</v>
       </c>
       <c r="B110">
         <v>705</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>75. Children under 5 years who are severely wasted (weight-for-height)19 (%)</t>
-        </is>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>110</v>
       </c>
       <c r="B111">
         <v>705</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>76. Children under 5 years who are underweight (weight-for-age)18 (%)</t>
-        </is>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>111</v>
       </c>
       <c r="B112">
         <v>705</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>77. Children under 5 years who are overweight (weight-for-height)20 (%)</t>
-        </is>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>112</v>
       </c>
       <c r="B113">
         <v>705</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>78. Women whose Body Mass Index (BMI) is below normal (BMI &lt;18.5 kg/m2)21 (%)</t>
-        </is>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>113</v>
       </c>
       <c r="B114">
         <v>705</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>79. Women who are overweight or obese (BMI â‰¥25.0 kg/m2)21 (%)</t>
-        </is>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>114</v>
       </c>
       <c r="B115">
         <v>705</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>8. Population living in households with an improved drinking-water source1 (%)</t>
-        </is>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>115</v>
       </c>
       <c r="B116">
         <v>705</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>80. Women who have high risk waist-to-hip ratio (â‰¥0.85) (%)</t>
-        </is>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>116</v>
       </c>
       <c r="B117">
         <v>705</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>81. Children age 6-59 months who are anaemic (&lt;11.0 g/dl)22 (%)</t>
-        </is>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>117</v>
       </c>
       <c r="B118">
         <v>705</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>82. Non-pregnant women age 15-49 years who are anaemic (&lt;12.0 g/dl)22 (%)</t>
-        </is>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>118</v>
       </c>
       <c r="B119">
         <v>705</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>83. Pregnant women age 15-49 years who are anaemic (&lt;11.0 g/dl)22 (%)</t>
-        </is>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>119</v>
       </c>
       <c r="B120">
         <v>705</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>84. All women age 15-49 years who are anaemic22 (%)</t>
-        </is>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>120</v>
       </c>
       <c r="B121">
         <v>705</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>85. All women age 15-19 years who are anaemic22 (%)</t>
-        </is>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>121</v>
       </c>
       <c r="B122">
         <v>705</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>86. Blood sugar level - high (141-160 mg/dl)23 (%)</t>
-        </is>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>122</v>
       </c>
       <c r="B123">
         <v>705</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>87. Blood sugar level - very high (&gt;160 mg/dl)23 (%)</t>
-        </is>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>123</v>
       </c>
       <c r="B124">
         <v>705</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>88. Blood sugar level - high or very high (&gt;140 mg/dl) or taking medicine to control blood sugar level23 (%)</t>
-        </is>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>124</v>
       </c>
       <c r="B125">
         <v>705</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>89. Blood sugar level - high (141-160 mg/dl)23 (%)</t>
-        </is>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>125</v>
       </c>
       <c r="B126">
         <v>705</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>9. Population living in households that use an improved sanitation facility2 (%)</t>
-        </is>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>126</v>
       </c>
       <c r="B127">
         <v>705</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>90. Blood sugar level - very high (&gt;160 mg/dl)23 (%)</t>
-        </is>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>127</v>
       </c>
       <c r="B128">
         <v>705</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>91. Blood sugar level - high or very high (&gt;140 mg/dl) or taking medicine to control blood sugar level23 (%)</t>
-        </is>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>128</v>
       </c>
       <c r="B129">
         <v>705</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>92. Mildly elevated blood pressure (Systolic 140-159 mm of Hg and/or Diastolic 90-99 mm of Hg) (%)</t>
-        </is>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>129</v>
       </c>
       <c r="B130">
         <v>705</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>93. Moderately or severely elevated blood pressure (Systolic â‰¥160mm of Hg and/or Diastolic â‰¥100mm of Hg) (%)</t>
-        </is>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>130</v>
       </c>
       <c r="B131">
         <v>705</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>94. Elevated blood pressure (Systolic â‰¥140 mm of Hg and/or Diastolic â‰¥90 mm of Hg) or taking medicine to</t>
-        </is>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>131</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>94. Elevated blood pressure (Systolic â‰¥140 mm of Hg and/or Diastolic â‰¥90 mm of Hg) or taking medicine to control blood pressure (%)</t>
-        </is>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>132</v>
       </c>
       <c r="B133">
         <v>704</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>95. Mildly elevated blood pressure (Systolic 140-159 mm of Hg and/or Diastolic 90-99 mm of Hg) (%)</t>
-        </is>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>133</v>
       </c>
       <c r="B134">
         <v>705</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>96. Moderately or severely elevated blood pressure (Systolic â‰¥160mm of Hg and/or Diastolic â‰¥100mm of Hg) (%)</t>
-        </is>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>134</v>
       </c>
       <c r="B135">
         <v>705</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>97. Elevated blood pressure (Systolic â‰¥140 mm of Hg and/or Diastolic â‰¥90 mm of Hg) or taking medicine to</t>
-        </is>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>135</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>97. Elevated blood pressure (Systolic â‰¥140 mm of Hg and/or Diastolic â‰¥90 mm of Hg) or taking medicine to control blood pressure (%)</t>
-        </is>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>136</v>
       </c>
       <c r="B137">
         <v>704</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>98. Ever undergone a screening test for cervical cancer (%)</t>
-        </is>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>137</v>
       </c>
       <c r="B138">
         <v>187</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>98.Ever undergone a screening test for cervical cancer (%)</t>
-        </is>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>138</v>
       </c>
       <c r="B139">
         <v>518</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>99. Ever undergone a breast examination for breast cancer (%)</t>
-        </is>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>139</v>
       </c>
       <c r="B140">
         <v>187</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>99.Ever undergone a breast examination for breast cancer (%)</t>
-        </is>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>140</v>
       </c>
       <c r="B141">
         <v>518</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>control blood pressure (%)</t>
-        </is>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>141</v>
       </c>
       <c r="B142">
         <v>2</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Current Use of Family Planning Methods (currently married women age 15â€“49 years) 20. Any method6 (%)</t>
-        </is>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>142</v>
       </c>
       <c r="B143">
         <v>703</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Current Use of Family Planning Methods (currently married women age 15â€“49 years) 21. Any method6 (%)</t>
-        </is>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>143</v>
       </c>
       <c r="B144">
         <v>2</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>days of delivery (%) 39. Average out-of-pocket expenditure per delivery in a public health facility (Rs.)</t>
-        </is>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>144</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>days of delivery (%) 42. Institutional births (%)</t>
-        </is>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>145</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>health provider (%) 67. Children under age 3 years breastfed within one hour of birth15 (%)</t>
-        </is>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>146</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>mother's recall11 (%) 50. Children age 12-23 months fully vaccinated based on information from vaccination card only12 (%)</t>
-        </is>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>147</v>
       </c>
       <c r="B148">
         <v>1</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B149">
         <v>7</v>
       </c>
